--- a/data/OECD의사수.xlsx
+++ b/data/OECD의사수.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdew\Documents\GitHub\IITPMainProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{13DEE31B-4F86-4AA3-8205-12186243C8C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EA1D7C-2C91-497C-BA75-7008A447C5D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEALTH_REAC_13092020102842298" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HEALTH_REAC_13092020102842298!$A$1:$D$2235</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -146,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1091,11 +1104,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W4" sqref="V4:W4"/>
+      <selection activeCell="R12" sqref="R12:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32394,6 +32407,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D2235" xr:uid="{136F2347-9963-4CBD-A309-717F51C3A6D2}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
